--- a/pds/ut3/pd1/pd1.xlsx
+++ b/pds/ut3/pd1/pd1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gatom\Desktop\ia\pds\ut3\ta1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gatom\Desktop\ia\pds\ut3\pd1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B64B48-01DD-4230-A7DA-4BCD685FE2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC68E101-E27A-4D68-84E6-810CFB8E86E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="0" windowWidth="18870" windowHeight="15600" xr2:uid="{AD39A1AA-C3D6-4B3F-93DC-76F0775D75FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD39A1AA-C3D6-4B3F-93DC-76F0775D75FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -92,15 +92,45 @@
   <si>
     <t>RMSE</t>
   </si>
+  <si>
+    <t>n° Iteración</t>
+  </si>
+  <si>
+    <t>P(i)</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Pred Grad</t>
+  </si>
+  <si>
+    <t>Error Grad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,12 +158,18 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -531,6 +567,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-UY"/>
+              <a:t>Predicción</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-UY" baseline="0"/>
+              <a:t> vs Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -993,6 +1059,488 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-UY"/>
+              <a:t>Prediccion Gradiente</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-608C-4658-B6DA-2CC2CE631639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pred Grad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.96557185689507596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.355870587644878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6607212222699772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0510199530197792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4413186837695813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7461693183946805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-608C-4658-B6DA-2CC2CE631639}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="727288368"/>
+        <c:axId val="690915264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="727288368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690915264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="690915264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727288368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-UY"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1073,6 +1621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2105,6 +2693,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2183,25 +3287,65 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45789310-86C3-C1B0-51C9-CA08CB0F72BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{156CA19B-1374-4F95-87EC-B2A8605A73A7}" name="Tabla2" displayName="Tabla2" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7" xr:uid="{156CA19B-1374-4F95-87EC-B2A8605A73A7}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{156CA19B-1374-4F95-87EC-B2A8605A73A7}" name="Tabla2" displayName="Tabla2" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{156CA19B-1374-4F95-87EC-B2A8605A73A7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2D834B13-E139-4C6A-9C3A-C4565ED6B415}" name="X"/>
     <tableColumn id="2" xr3:uid="{2EDCA85A-8552-470C-B3FB-F3D45611179A}" name="Y"/>
-    <tableColumn id="3" xr3:uid="{49D2035D-AE14-45B7-9B40-1FC2A147880D}" name="X-media(X)" dataDxfId="2">
-      <calculatedColumnFormula>SUM(Tabla2[[#This Row],[X]],-I1)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{49D2035D-AE14-45B7-9B40-1FC2A147880D}" name="X-media(X)" dataDxfId="4">
+      <calculatedColumnFormula>SUM(Tabla2[[#This Row],[X]],-K1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{149713E2-5143-48A7-B931-DDB5AAC7C707}" name="Y-media(Y)"/>
-    <tableColumn id="5" xr3:uid="{F61791AE-EC4E-4E8F-AFEB-75A524541113}" name="Prediccion(y)" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{F61791AE-EC4E-4E8F-AFEB-75A524541113}" name="Prediccion(y)" dataDxfId="3">
       <calculatedColumnFormula array="1" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{81D19BAD-F114-459C-8CF9-A13FB31B970D}" name="Error" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{81D19BAD-F114-459C-8CF9-A13FB31B970D}" name="Error" dataDxfId="2">
       <calculatedColumnFormula xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" xr3:uid="{BAAAE421-1C41-4A27-A133-178716533F14}" name="Pred Grad" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M31</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{6AF11F81-AC7F-4756-AFDB-04D309DA906D}" name="Error Grad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2248,6 +3392,31 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFA5D057-3959-4945-8A3C-2DD48FEF09DC}" name="Tabla1" displayName="Tabla1" ref="K9:R34" totalsRowShown="0">
+  <autoFilter ref="K9:R34" xr:uid="{AFA5D057-3959-4945-8A3C-2DD48FEF09DC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8F94A082-D9CC-400C-950B-1D8164F3965A}" name="n° Iteración"/>
+    <tableColumn id="2" xr3:uid="{ABB45B64-F8E3-44DF-B936-F6EEB15AC22A}" name="B0">
+      <calculatedColumnFormula>L9-O9*P9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A1ED2B99-7274-4295-9331-9DF2D5DE7C31}" name="B1">
+      <calculatedColumnFormula xml:space="preserve"> M9-O9*P9*Q9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7A97FAC2-E764-475A-B323-0E72071CFDB2}" name="P(i)">
+      <calculatedColumnFormula xml:space="preserve"> L10 +  M10*Q10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E4B11941-C17A-4C12-9006-4E16BC8332C4}" name="alpha"/>
+    <tableColumn id="6" xr3:uid="{ABCBEE72-87FF-4F23-A9F6-2E6472181F3D}" name="delta">
+      <calculatedColumnFormula xml:space="preserve"> N10-R10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B44A7A46-5A65-43AA-BB44-4579364F572C}" name="x"/>
+    <tableColumn id="8" xr3:uid="{5F22D225-1CE5-4440-B763-60F502626196}" name="y"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2548,19 +3717,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50C6911-ECBD-4FD3-B6DB-36CFF26F6672}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2579,8 +3751,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2599,12 +3777,16 @@
         <f t="array" ref="E2" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>1.8095238095238093</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>0.10922146636432345</v>
       </c>
+      <c r="G2">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>0.96557185689507596</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2623,12 +3805,16 @@
         <f t="array" ref="E3" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>2.4952380952380953</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>4.0876795162509451E-2</v>
       </c>
+      <c r="G3">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>2.355870587644878</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2647,12 +3833,17 @@
         <f t="array" ref="E4" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>2.1523809523809523</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>0.11974300831443691</v>
       </c>
+      <c r="G4">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>1.6607212222699772</v>
+      </c>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2671,12 +3862,16 @@
         <f t="array" ref="E5" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>2.8380952380952378</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>4.3688586545729572E-3</v>
       </c>
+      <c r="G5">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>3.0510199530197792</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2695,12 +3890,16 @@
         <f t="array" ref="E6" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>3.5238095238095237</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>0.38699924414210124</v>
       </c>
+      <c r="G6">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>4.4413186837695813</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2719,12 +3918,16 @@
         <f t="array" ref="E7" xml:space="preserve"> Tabla4[B0] + Tabla4[B1]*Tabla2[[#This Row],[X]]</f>
         <v>3.1809523809523812</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <f xml:space="preserve">  (Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])*(Tabla2[[#This Row],[Prediccion(y)]]-Tabla2[[#This Row],[Y]])/ 6</f>
         <v>0.55148904006046851</v>
       </c>
+      <c r="G7">
+        <f xml:space="preserve"> L34 + Tabla2[[#This Row],[X]]*M34</f>
+        <v>3.7461693183946805</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2746,8 +3949,32 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>AVERAGE(A2:A7)</f>
         <v>3.5</v>
@@ -2768,18 +3995,765 @@
         <f xml:space="preserve"> SQRT(SUM(Tabla2[Error]))</f>
         <v>1.1012258681571245</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.01</v>
+      </c>
+      <c r="P10">
+        <f xml:space="preserve"> N10-R10</f>
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>L10-O10*P10</f>
+        <v>0.01</v>
+      </c>
+      <c r="M11">
+        <f xml:space="preserve"> M10-O10*P10*Q10</f>
+        <v>0.01</v>
+      </c>
+      <c r="N11">
+        <f xml:space="preserve"> L11 +  M11*Q11</f>
+        <v>0.02</v>
+      </c>
+      <c r="O11">
+        <v>0.01</v>
+      </c>
+      <c r="P11">
+        <f xml:space="preserve"> N11-R11</f>
+        <v>-0.98</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L34" si="0">L11-O11*P11</f>
+        <v>1.9799999999999998E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M34" si="1" xml:space="preserve"> M11-O11*P11*Q11</f>
+        <v>1.9799999999999998E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N34" si="2" xml:space="preserve"> L12 +  M12*Q12</f>
+        <v>3.9599999999999996E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.01</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P34" si="3" xml:space="preserve"> N12-R12</f>
+        <v>-0.96040000000000003</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2.9404E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>2.9404E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>5.8807999999999999E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.01</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-0.94119200000000003</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.8815920000000004E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>3.8815920000000004E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>7.7631840000000008E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.01</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>-0.92236815999999999</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>4.8039601600000002E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>4.8039601600000002E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.19215840640000001</v>
+      </c>
+      <c r="O15">
+        <v>0.01</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>-1.8078415936000001</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <f>L15-O15*P15</f>
+        <v>6.6118017535999996E-2</v>
+      </c>
+      <c r="M16">
+        <f xml:space="preserve"> M15-O15*P15*Q15</f>
+        <v>0.102274849408</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.37294256575999996</v>
+      </c>
+      <c r="O16">
+        <v>0.01</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>-1.6270574342400002</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>8.2388591878400003E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.15108657243519999</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0.53564830918399997</v>
+      </c>
+      <c r="O17">
+        <v>0.01</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>-1.4643516908160001</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>9.7032108786560003E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0.19501712315968001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>0.68208347826560001</v>
+      </c>
+      <c r="O18">
+        <v>0.01</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>-1.3179165217344</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0.110211274003904</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.23455461881171202</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.57932051162732801</v>
+      </c>
+      <c r="O19">
+        <v>0.01</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>-2.4206794883726719</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.13441806888763072</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.28296820857916549</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.70035448604596173</v>
+      </c>
+      <c r="O20">
+        <v>0.01</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>-2.2996455139540384</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.1574145240271711</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.32896111885824625</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.81533676174366354</v>
+      </c>
+      <c r="O21">
+        <v>0.01</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>-2.1846632382563365</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0.17926115640973447</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.372654383623373</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.9245699236564805</v>
+      </c>
+      <c r="O22">
+        <v>0.01</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>-2.0754300763435194</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.20001545717316965</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.41416298515024341</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1.8566673977741432</v>
+      </c>
+      <c r="O23">
+        <v>0.01</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>-1.1433326022258568</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.21144878319542823</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.45989628923927767</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>2.0510339401525388</v>
+      </c>
+      <c r="O24">
+        <v>0.01</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>-0.94896605984746119</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0.22093844379390284</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.49785493163317612</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>2.2123581703266075</v>
+      </c>
+      <c r="O25">
+        <v>0.01</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>-0.78764182967339247</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0.22881486209063678</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.52936060482011182</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>2.3462572813710842</v>
+      </c>
+      <c r="O26">
+        <v>0.01</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>-0.65374271862891575</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0.23535228927692595</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0.55551031356526848</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>3.5684141706685368</v>
+      </c>
+      <c r="O27">
+        <v>0.01</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>1.5684141706685368</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0.21966814757024059</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0.46140546332515625</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>2.9881009275211778</v>
+      </c>
+      <c r="O28">
+        <v>0.01</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>0.98810092752117784</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0.20978713829502882</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.4021194076738856</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>2.6225035843383422</v>
+      </c>
+      <c r="O29">
+        <v>0.01</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>0.62250358433834219</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0.20356210245164541</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0.36476919261358509</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>2.392177258133156</v>
+      </c>
+      <c r="O30">
+        <v>0.01</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>0.39217725813315596</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0.19964032987031385</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0.34123855712559575</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>1.9058331154982926</v>
+      </c>
+      <c r="O31">
+        <v>0.01</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>-3.0941668845017074</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0.23058199871533092</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0.49594690135068115</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>2.7103165054687364</v>
+      </c>
+      <c r="O32">
+        <v>0.01</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>-2.2896834945312636</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0.25347883366064355</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0.61043107607724434</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>3.3056342140468651</v>
+      </c>
+      <c r="O33">
+        <v>0.01</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>-1.6943657859531349</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>24</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0.27042249152017489</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0.69514936537490113</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>3.7461693183946805</v>
+      </c>
+      <c r="O34">
+        <v>0.01</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>-1.2538306816053195</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C2:C7" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>